--- a/group2 project/Database_only_interesting_columns.xlsx
+++ b/group2 project/Database_only_interesting_columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\citcea\Documents\GitHub\MUSAE\MUSAE_smart_grids\group2 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5842DD88-7F15-42DC-A0B6-7E9AB753B77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD51965-15A1-41C3-B047-59A56EB5A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1455" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>demand_pu</t>
   </si>
@@ -35,6 +35,9 @@
   <si>
     <t>Solar_pu</t>
   </si>
+  <si>
+    <t>Gas_pu</t>
+  </si>
 </sst>
 </file>
 
@@ -43,11 +46,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,15 +88,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -140,11 +171,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Demand and generation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> [Pu] curves</a:t>
+              <a:t>Power Generation per source in Pu</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -201,7 +228,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -294,7 +321,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E0F5-44FB-A499-5D7337C79148}"/>
+              <c16:uniqueId val="{00000000-45F3-4B63-9024-73CE4D594F95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -315,10 +342,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -411,7 +435,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E0F5-44FB-A499-5D7337C79148}"/>
+              <c16:uniqueId val="{00000001-45F3-4B63-9024-73CE4D594F95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -432,10 +456,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -528,7 +549,121 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E0F5-44FB-A499-5D7337C79148}"/>
+              <c16:uniqueId val="{00000002-45F3-4B63-9024-73CE4D594F95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gas_pu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.45154553050000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43546365910000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43337510439999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42418546369999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4237677527</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4237677527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4747284879</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46971595659999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64766081870000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85985797829999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85505430240000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80534670009999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67230576440000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60463659150000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54761904760000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46825396829999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42042606519999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49624060149999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70655806180000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94340016709999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93149540519999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.90580618209999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73830409360000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-45F3-4B63-9024-73CE4D594F95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -541,11 +676,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="271359648"/>
-        <c:axId val="271350496"/>
+        <c:axId val="821381231"/>
+        <c:axId val="821377903"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="271359648"/>
+        <c:axId val="821381231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271350496"/>
+        <c:crossAx val="821377903"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -595,10 +730,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271350496"/>
+        <c:axId val="821377903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -647,7 +781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271359648"/>
+        <c:crossAx val="821381231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1294,23 +1428,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>27622</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>145731</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>22859</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AC9605-EA1D-4841-88DD-0E2676193256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3B84D3-24EF-4EB1-A689-1826136059BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1542,7 +1676,7 @@
     <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,8 +1686,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.77649586217114308</v>
       </c>
@@ -1563,8 +1700,11 @@
       <c r="C2" s="2">
         <v>5.3222881546897303E-3</v>
       </c>
+      <c r="D2" s="4">
+        <v>0.45154553050000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.72329460071538931</v>
       </c>
@@ -1574,8 +1714,11 @@
       <c r="C3" s="2">
         <v>5.2793664760228771E-3</v>
       </c>
+      <c r="D3" s="4">
+        <v>0.43546365910000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.6805850106885093</v>
       </c>
@@ -1585,8 +1728,11 @@
       <c r="C4" s="2">
         <v>4.9789147253549082E-3</v>
       </c>
+      <c r="D4" s="4">
+        <v>0.43337510439999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0.65783647639003529</v>
       </c>
@@ -1596,8 +1742,11 @@
       <c r="C5" s="2">
         <v>5.0325668236884738E-3</v>
       </c>
+      <c r="D5" s="4">
+        <v>0.42418546369999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.6478929879145765</v>
       </c>
@@ -1607,8 +1756,11 @@
       <c r="C6" s="2">
         <v>5.0218364040217614E-3</v>
       </c>
+      <c r="D6" s="4">
+        <v>0.4237677527</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.6478929879145765</v>
       </c>
@@ -1618,8 +1770,11 @@
       <c r="C7" s="2">
         <v>5.0218364040217614E-3</v>
       </c>
+      <c r="D7" s="4">
+        <v>0.4237677527</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.65035451986369497</v>
       </c>
@@ -1629,8 +1784,11 @@
       <c r="C8" s="2">
         <v>4.8501496893543503E-3</v>
       </c>
+      <c r="D8" s="4">
+        <v>0.4747284879</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.68576417550320656</v>
       </c>
@@ -1640,8 +1798,11 @@
       <c r="C9" s="2">
         <v>4.8716105286877769E-3</v>
       </c>
+      <c r="D9" s="4">
+        <v>0.46971595659999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.77258450271974932</v>
       </c>
@@ -1651,8 +1812,11 @@
       <c r="C10" s="2">
         <v>4.9789147253549082E-3</v>
       </c>
+      <c r="D10" s="4">
+        <v>0.64766081870000003</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.85466167164052753</v>
       </c>
@@ -1662,8 +1826,11 @@
       <c r="C11" s="2">
         <v>4.6891933943536534E-3</v>
       </c>
+      <c r="D11" s="4">
+        <v>0.85985797829999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>0.89337524075602681</v>
       </c>
@@ -1673,8 +1840,11 @@
       <c r="C12" s="2">
         <v>6.1281426716598884E-2</v>
       </c>
+      <c r="D12" s="4">
+        <v>0.85505430240000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>0.92327555188689225</v>
       </c>
@@ -1684,8 +1854,11 @@
       <c r="C13" s="2">
         <v>0.44030131018424129</v>
       </c>
+      <c r="D13" s="4">
+        <v>0.80534670009999998</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>0.92849916396808263</v>
       </c>
@@ -1695,8 +1868,11 @@
       <c r="C14" s="2">
         <v>0.7781378429710385</v>
       </c>
+      <c r="D14" s="4">
+        <v>0.67230576440000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>0.92096852710224997</v>
       </c>
@@ -1706,8 +1882,11 @@
       <c r="C15" s="2">
         <v>0.91275095768995529</v>
       </c>
+      <c r="D15" s="4">
+        <v>0.60463659150000004</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>0.92104048934323879</v>
       </c>
@@ -1717,8 +1896,11 @@
       <c r="C16" s="2">
         <v>0.96272252207783837</v>
       </c>
+      <c r="D16" s="4">
+        <v>0.54761904760000002</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>0.92149977776366754</v>
       </c>
@@ -1728,8 +1910,11 @@
       <c r="C17" s="2">
         <v>1</v>
       </c>
+      <c r="D17" s="4">
+        <v>0.46825396829999999</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>0.89703896543695905</v>
       </c>
@@ -1739,8 +1924,11 @@
       <c r="C18" s="2">
         <v>0.96678935113152276</v>
       </c>
+      <c r="D18" s="4">
+        <v>0.42042606519999998</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>0.88184858297881352</v>
       </c>
@@ -1750,8 +1938,11 @@
       <c r="C19" s="2">
         <v>0.84856158724367703</v>
       </c>
+      <c r="D19" s="4">
+        <v>0.49624060149999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>0.8819607594132961</v>
       </c>
@@ -1761,8 +1952,11 @@
       <c r="C20" s="2">
         <v>0.41943064393248419</v>
       </c>
+      <c r="D20" s="4">
+        <v>0.70655806180000003</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>0.92154422503016065</v>
       </c>
@@ -1772,8 +1966,11 @@
       <c r="C21" s="2">
         <v>3.8554397862500402E-2</v>
       </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>0.95986623489322065</v>
       </c>
@@ -1783,8 +1980,11 @@
       <c r="C22" s="2">
         <v>6.6957818720290154E-3</v>
       </c>
+      <c r="D22" s="4">
+        <v>0.94340016709999996</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>0.98913370161068426</v>
       </c>
@@ -1794,8 +1994,11 @@
       <c r="C23" s="2">
         <v>6.2880259246939152E-3</v>
       </c>
+      <c r="D23" s="4">
+        <v>0.93149540519999996</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -1805,8 +2008,11 @@
       <c r="C24" s="2">
         <v>5.8695395576921017E-3</v>
       </c>
+      <c r="D24" s="4">
+        <v>0.90580618209999997</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>0.94304611933032778</v>
       </c>
@@ -1816,14 +2022,17 @@
       <c r="C25" s="2">
         <v>5.7300441020248305E-3</v>
       </c>
+      <c r="D25" s="4">
+        <v>0.73830409360000004</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2794,7 +3003,7 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/group2 project/Database_only_interesting_columns.xlsx
+++ b/group2 project/Database_only_interesting_columns.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\citcea\Documents\GitHub\MUSAE\MUSAE_smart_grids\group2 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD51965-15A1-41C3-B047-59A56EB5A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEBB77F-ACFD-4F52-A36A-9E2283BADB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="/FGiLqvpjo16316zg0SeZRk23XW7DMAW7rgPToTjkYg="/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>demand_pu</t>
   </si>
@@ -37,6 +46,12 @@
   </si>
   <si>
     <t>Gas_pu</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Storage_pu</t>
   </si>
 </sst>
 </file>
@@ -107,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -119,6 +134,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,7 +188,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Power Generation per source in Pu</a:t>
+              <a:t>Power generation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> pu</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -321,7 +342,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-45F3-4B63-9024-73CE4D594F95}"/>
+              <c16:uniqueId val="{00000000-BB32-434D-A671-028F8CD56732}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -435,7 +456,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-45F3-4B63-9024-73CE4D594F95}"/>
+              <c16:uniqueId val="{00000001-BB32-434D-A671-028F8CD56732}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -549,7 +570,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-45F3-4B63-9024-73CE4D594F95}"/>
+              <c16:uniqueId val="{00000002-BB32-434D-A671-028F8CD56732}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -558,11 +579,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gas_pu</c:v>
+                  <c:v>Storage_pu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -581,81 +602,81 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:f>Sheet1!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.45154553050000001</c:v>
+                  <c:v>0.85042710431567281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43546365910000001</c:v>
+                  <c:v>0.70951120509192289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43337510439999999</c:v>
+                  <c:v>0.60748437389426335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42418546369999999</c:v>
+                  <c:v>0.5852635915077985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4237677527</c:v>
+                  <c:v>0.58176146925627958</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4237677527</c:v>
+                  <c:v>0.58176146925627958</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4747284879</c:v>
+                  <c:v>0.54670995432631475</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46971595659999998</c:v>
+                  <c:v>0.65422616799478994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64766081870000003</c:v>
+                  <c:v>0.707204361530547</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85985797829999999</c:v>
+                  <c:v>0.7231394182294224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.85505430240000002</c:v>
+                  <c:v>0.78817979677375705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.80534670009999998</c:v>
+                  <c:v>0.57828839107904306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67230576440000001</c:v>
+                  <c:v>0.41745377378621518</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60463659150000004</c:v>
+                  <c:v>0.35214004059727949</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.54761904760000002</c:v>
+                  <c:v>0.34318995679685643</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.46825396829999999</c:v>
+                  <c:v>0.36244110834076965</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.42042606519999998</c:v>
+                  <c:v>0.3713333277334967</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.49624060149999999</c:v>
+                  <c:v>0.35944161999664942</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.70655806180000003</c:v>
+                  <c:v>0.55998503078917328</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.73678872593358624</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89826718911456516</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96423028637566632</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.94340016709999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.93149540519999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.90580618209999997</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.73830409360000004</c:v>
+                  <c:v>0.98420339435080517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,7 +684,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-45F3-4B63-9024-73CE4D594F95}"/>
+              <c16:uniqueId val="{00000003-BB32-434D-A671-028F8CD56732}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -676,11 +697,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="821381231"/>
-        <c:axId val="821377903"/>
+        <c:axId val="2034096015"/>
+        <c:axId val="2034100591"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="821381231"/>
+        <c:axId val="2034096015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821377903"/>
+        <c:crossAx val="2034100591"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -730,7 +751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="821377903"/>
+        <c:axId val="2034100591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821381231"/>
+        <c:crossAx val="2034096015"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1429,22 +1450,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3B84D3-24EF-4EB1-A689-1826136059BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524031E2-27C0-4907-B3E3-84C197B4D5BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,20 +1684,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,8 +1712,14 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.77649586217114308</v>
       </c>
@@ -1703,8 +1732,16 @@
       <c r="D2" s="4">
         <v>0.45154553050000001</v>
       </c>
+      <c r="E2">
+        <f>F2/MAX($F$2:$F$25)</f>
+        <v>0.85042710431567281</v>
+      </c>
+      <c r="F2" s="6">
+        <f>A2-AVERAGE(B2:D2)</f>
+        <v>0.3125377150149431</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.72329460071538931</v>
       </c>
@@ -1717,8 +1754,16 @@
       <c r="D3" s="4">
         <v>0.43546365910000001</v>
       </c>
+      <c r="E3">
+        <f>F3/MAX($F$2:$F$25)</f>
+        <v>0.70951120509192289</v>
+      </c>
+      <c r="F3" s="6">
+        <f>A3-AVERAGE(B3:D3)</f>
+        <v>0.26075016858189942</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.6805850106885093</v>
       </c>
@@ -1731,8 +1776,16 @@
       <c r="D4" s="4">
         <v>0.43337510439999999</v>
       </c>
+      <c r="E4">
+        <f>F4/MAX($F$2:$F$25)</f>
+        <v>0.60748437389426335</v>
+      </c>
+      <c r="F4" s="6">
+        <f>A4-AVERAGE(B4:D4)</f>
+        <v>0.22325461778052763</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0.65783647639003529</v>
       </c>
@@ -1745,8 +1798,16 @@
       <c r="D5" s="4">
         <v>0.42418546369999999</v>
       </c>
+      <c r="E5">
+        <f>F5/MAX($F$2:$F$25)</f>
+        <v>0.5852635915077985</v>
+      </c>
+      <c r="F5" s="6">
+        <f>A5-AVERAGE(B5:D5)</f>
+        <v>0.21508832990274596</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.6478929879145765</v>
       </c>
@@ -1759,8 +1820,16 @@
       <c r="D6" s="4">
         <v>0.4237677527</v>
       </c>
+      <c r="E6">
+        <f>F6/MAX($F$2:$F$25)</f>
+        <v>0.58176146925627958</v>
+      </c>
+      <c r="F6" s="6">
+        <f>A6-AVERAGE(B6:D6)</f>
+        <v>0.21380127627917472</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.6478929879145765</v>
       </c>
@@ -1773,8 +1842,16 @@
       <c r="D7" s="4">
         <v>0.4237677527</v>
       </c>
+      <c r="E7">
+        <f>F7/MAX($F$2:$F$25)</f>
+        <v>0.58176146925627958</v>
+      </c>
+      <c r="F7" s="6">
+        <f>A7-AVERAGE(B7:D7)</f>
+        <v>0.21380127627917472</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.65035451986369497</v>
       </c>
@@ -1787,8 +1864,16 @@
       <c r="D8" s="4">
         <v>0.4747284879</v>
       </c>
+      <c r="E8">
+        <f>F8/MAX($F$2:$F$25)</f>
+        <v>0.54670995432631475</v>
+      </c>
+      <c r="F8" s="6">
+        <f>A8-AVERAGE(B8:D8)</f>
+        <v>0.20091960737606673</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.68576417550320656</v>
       </c>
@@ -1801,8 +1886,16 @@
       <c r="D9" s="4">
         <v>0.46971595659999998</v>
       </c>
+      <c r="E9">
+        <f>F9/MAX($F$2:$F$25)</f>
+        <v>0.65422616799478994</v>
+      </c>
+      <c r="F9" s="6">
+        <f>A9-AVERAGE(B9:D9)</f>
+        <v>0.24043254337784598</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.77258450271974932</v>
       </c>
@@ -1815,8 +1908,16 @@
       <c r="D10" s="4">
         <v>0.64766081870000003</v>
       </c>
+      <c r="E10">
+        <f>F10/MAX($F$2:$F$25)</f>
+        <v>0.707204361530547</v>
+      </c>
+      <c r="F10" s="6">
+        <f>A10-AVERAGE(B10:D10)</f>
+        <v>0.25990238796447718</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.85466167164052753</v>
       </c>
@@ -1829,8 +1930,16 @@
       <c r="D11" s="4">
         <v>0.85985797829999999</v>
       </c>
+      <c r="E11">
+        <f>F11/MAX($F$2:$F$25)</f>
+        <v>0.7231394182294224</v>
+      </c>
+      <c r="F11" s="6">
+        <f>A11-AVERAGE(B11:D11)</f>
+        <v>0.26575862912145165</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>0.89337524075602681</v>
       </c>
@@ -1843,8 +1952,16 @@
       <c r="D12" s="4">
         <v>0.85505430240000002</v>
       </c>
+      <c r="E12">
+        <f>F12/MAX($F$2:$F$25)</f>
+        <v>0.78817979677375705</v>
+      </c>
+      <c r="F12" s="6">
+        <f>A12-AVERAGE(B12:D12)</f>
+        <v>0.28966140831416165</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>0.92327555188689225</v>
       </c>
@@ -1857,8 +1974,16 @@
       <c r="D13" s="4">
         <v>0.80534670009999998</v>
       </c>
+      <c r="E13">
+        <f>F13/MAX($F$2:$F$25)</f>
+        <v>0.57828839107904306</v>
+      </c>
+      <c r="F13" s="6">
+        <f>A13-AVERAGE(B13:D13)</f>
+        <v>0.21252489654942086</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>0.92849916396808263</v>
       </c>
@@ -1871,8 +1996,16 @@
       <c r="D14" s="4">
         <v>0.67230576440000001</v>
       </c>
+      <c r="E14">
+        <f>F14/MAX($F$2:$F$25)</f>
+        <v>0.41745377378621518</v>
+      </c>
+      <c r="F14" s="6">
+        <f>A14-AVERAGE(B14:D14)</f>
+        <v>0.15341708645151442</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>0.92096852710224997</v>
       </c>
@@ -1885,8 +2018,16 @@
       <c r="D15" s="4">
         <v>0.60463659150000004</v>
       </c>
+      <c r="E15">
+        <f>F15/MAX($F$2:$F$25)</f>
+        <v>0.35214004059727949</v>
+      </c>
+      <c r="F15" s="6">
+        <f>A15-AVERAGE(B15:D15)</f>
+        <v>0.12941384757733521</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>0.92104048934323879</v>
       </c>
@@ -1899,8 +2040,16 @@
       <c r="D16" s="4">
         <v>0.54761904760000002</v>
       </c>
+      <c r="E16">
+        <f>F16/MAX($F$2:$F$25)</f>
+        <v>0.34318995679685643</v>
+      </c>
+      <c r="F16" s="6">
+        <f>A16-AVERAGE(B16:D16)</f>
+        <v>0.12612463122242212</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>0.92149977776366754</v>
       </c>
@@ -1913,8 +2062,16 @@
       <c r="D17" s="4">
         <v>0.46825396829999999</v>
       </c>
+      <c r="E17">
+        <f>F17/MAX($F$2:$F$25)</f>
+        <v>0.36244110834076965</v>
+      </c>
+      <c r="F17" s="6">
+        <f>A17-AVERAGE(B17:D17)</f>
+        <v>0.13319955967238328</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>0.89703896543695905</v>
       </c>
@@ -1927,8 +2084,16 @@
       <c r="D18" s="4">
         <v>0.42042606519999998</v>
       </c>
+      <c r="E18">
+        <f>F18/MAX($F$2:$F$25)</f>
+        <v>0.3713333277334967</v>
+      </c>
+      <c r="F18" s="6">
+        <f>A18-AVERAGE(B18:D18)</f>
+        <v>0.13646751046594463</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>0.88184858297881352</v>
       </c>
@@ -1941,8 +2106,16 @@
       <c r="D19" s="4">
         <v>0.49624060149999999</v>
       </c>
+      <c r="E19">
+        <f>F19/MAX($F$2:$F$25)</f>
+        <v>0.35944161999664942</v>
+      </c>
+      <c r="F19" s="6">
+        <f>A19-AVERAGE(B19:D19)</f>
+        <v>0.13209722741071384</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>0.8819607594132961</v>
       </c>
@@ -1955,8 +2128,16 @@
       <c r="D20" s="4">
         <v>0.70655806180000003</v>
       </c>
+      <c r="E20">
+        <f>F20/MAX($F$2:$F$25)</f>
+        <v>0.55998503078917328</v>
+      </c>
+      <c r="F20" s="6">
+        <f>A20-AVERAGE(B20:D20)</f>
+        <v>0.20579828779828713</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>0.92154422503016065</v>
       </c>
@@ -1969,8 +2150,16 @@
       <c r="D21" s="4">
         <v>1</v>
       </c>
+      <c r="E21">
+        <f>F21/MAX($F$2:$F$25)</f>
+        <v>0.73678872593358624</v>
+      </c>
+      <c r="F21" s="6">
+        <f>A21-AVERAGE(B21:D21)</f>
+        <v>0.27077484205698354</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>0.95986623489322065</v>
       </c>
@@ -1983,8 +2172,16 @@
       <c r="D22" s="4">
         <v>0.94340016709999996</v>
       </c>
+      <c r="E22">
+        <f>F22/MAX($F$2:$F$25)</f>
+        <v>0.89826718911456516</v>
+      </c>
+      <c r="F22" s="6">
+        <f>A22-AVERAGE(B22:D22)</f>
+        <v>0.33011926987519002</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>0.98913370161068426</v>
       </c>
@@ -1997,8 +2194,16 @@
       <c r="D23" s="4">
         <v>0.93149540519999996</v>
       </c>
+      <c r="E23">
+        <f>F23/MAX($F$2:$F$25)</f>
+        <v>0.96423028637566632</v>
+      </c>
+      <c r="F23" s="6">
+        <f>A23-AVERAGE(B23:D23)</f>
+        <v>0.35436115443963179</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -2011,8 +2216,16 @@
       <c r="D24" s="4">
         <v>0.90580618209999997</v>
       </c>
+      <c r="E24">
+        <f>F24/MAX($F$2:$F$25)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <f>A24-AVERAGE(B24:D24)</f>
+        <v>0.36750676622241241</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>0.94304611933032778</v>
       </c>
@@ -2025,14 +2238,22 @@
       <c r="D25" s="4">
         <v>0.73830409360000004</v>
       </c>
+      <c r="E25">
+        <f>F25/MAX($F$2:$F$25)</f>
+        <v>0.98420339435080517</v>
+      </c>
+      <c r="F25" s="6">
+        <f>A25-AVERAGE(B25:D25)</f>
+        <v>0.36170140676298612</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/group2 project/Database_only_interesting_columns.xlsx
+++ b/group2 project/Database_only_interesting_columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\citcea\Documents\GitHub\MUSAE\MUSAE_smart_grids\group2 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEBB77F-ACFD-4F52-A36A-9E2283BADB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C08CF-A601-4D56-A1B6-1899A92FE827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>demand_pu</t>
   </si>
@@ -48,10 +48,19 @@
     <t>Gas_pu</t>
   </si>
   <si>
-    <t>Storage</t>
+    <t>Storage_pu</t>
   </si>
   <si>
-    <t>Storage_pu</t>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>real demand</t>
+  </si>
+  <si>
+    <t>real wind</t>
+  </si>
+  <si>
+    <t>filling storage</t>
   </si>
 </sst>
 </file>
@@ -607,76 +616,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.85042710431567281</c:v>
+                  <c:v>0.32552964181478761</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70951120509192289</c:v>
+                  <c:v>0.15965386210540652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60748437389426335</c:v>
+                  <c:v>3.6018147644945861E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5852635915077985</c:v>
+                  <c:v>-1.940902069407114E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58176146925627958</c:v>
+                  <c:v>-3.9753721540523312E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58176146925627958</c:v>
+                  <c:v>-3.9753721540523312E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54670995432631475</c:v>
+                  <c:v>-3.0617938406113276E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65422616799478994</c:v>
+                  <c:v>7.8276060415353149E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.707204361530547</c:v>
+                  <c:v>0.33228168763389254</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7231394182294224</c:v>
+                  <c:v>0.57800099861361454</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78817979677375705</c:v>
+                  <c:v>0.69124779891805299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57828839107904306</c:v>
+                  <c:v>0.72291798982007438</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41745377378621518</c:v>
+                  <c:v>0.68621429701088221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35214004059727949</c:v>
+                  <c:v>0.64668424257449686</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.34318995679685643</c:v>
+                  <c:v>0.63187592379946289</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36244110834076965</c:v>
+                  <c:v>0.61847845496905629</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3713333277334967</c:v>
+                  <c:v>0.54924839107435153</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.35944161999664942</c:v>
+                  <c:v>0.51853486777712354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.55998503078917328</c:v>
+                  <c:v>0.59208486019698348</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.73678872593358624</c:v>
+                  <c:v>0.77565782997640054</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.89826718911456516</c:v>
+                  <c:v>0.89143216872717423</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.96423028637566632</c:v>
+                  <c:v>0.97309413416597379</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98420339435080517</c:v>
+                  <c:v>0.81526257816838776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,16 +1458,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1481,6 +1490,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335747</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>84043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7005E92B-6C73-47BA-90CF-5CD439ECD45B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211580" y="4701540"/>
+          <a:ext cx="5387807" cy="2568163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1684,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1695,11 +1748,12 @@
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="26" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1713,13 +1767,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.77649586217114308</v>
       </c>
@@ -1733,15 +1798,19 @@
         <v>0.45154553050000001</v>
       </c>
       <c r="E2">
-        <f>F2/MAX($F$2:$F$25)</f>
-        <v>0.85042710431567281</v>
+        <f>F2/MIN($F$2:$F$25)</f>
+        <v>0.32552964181478761</v>
       </c>
       <c r="F2" s="6">
-        <f>A2-AVERAGE(B2:D2)</f>
-        <v>0.3125377150149431</v>
+        <f>-33.79777</f>
+        <v>-33.79777</v>
+      </c>
+      <c r="G2" s="6">
+        <f>IF(F2&lt;0,1,0)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0.72329460071538931</v>
       </c>
@@ -1755,15 +1824,19 @@
         <v>0.43546365910000001</v>
       </c>
       <c r="E3">
-        <f>F3/MAX($F$2:$F$25)</f>
-        <v>0.70951120509192289</v>
+        <f t="shared" ref="E3:E25" si="0">F3/MIN($F$2:$F$25)</f>
+        <v>0.15965386210540652</v>
       </c>
       <c r="F3" s="6">
-        <f>A3-AVERAGE(B3:D3)</f>
-        <v>0.26075016858189942</v>
+        <f>-16.575893</f>
+        <v>-16.575893000000001</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G25" si="1">IF(F3&lt;0,1,0)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0.6805850106885093</v>
       </c>
@@ -1777,15 +1850,19 @@
         <v>0.43337510439999999</v>
       </c>
       <c r="E4">
-        <f>F4/MAX($F$2:$F$25)</f>
-        <v>0.60748437389426335</v>
+        <f t="shared" si="0"/>
+        <v>3.6018147644945861E-2</v>
       </c>
       <c r="F4" s="6">
-        <f>A4-AVERAGE(B4:D4)</f>
-        <v>0.22325461778052763</v>
+        <f>-3.739546</f>
+        <v>-3.7395459999999998</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0.65783647639003529</v>
       </c>
@@ -1799,15 +1876,18 @@
         <v>0.42418546369999999</v>
       </c>
       <c r="E5">
-        <f>F5/MAX($F$2:$F$25)</f>
-        <v>0.5852635915077985</v>
+        <f t="shared" si="0"/>
+        <v>-1.940902069407114E-2</v>
       </c>
       <c r="F5" s="6">
-        <f>A5-AVERAGE(B5:D5)</f>
-        <v>0.21508832990274596</v>
+        <v>2.0151210000000002</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.6478929879145765</v>
       </c>
@@ -1821,15 +1901,18 @@
         <v>0.4237677527</v>
       </c>
       <c r="E6">
-        <f>F6/MAX($F$2:$F$25)</f>
-        <v>0.58176146925627958</v>
+        <f t="shared" si="0"/>
+        <v>-3.9753721540523312E-2</v>
       </c>
       <c r="F6" s="6">
-        <f>A6-AVERAGE(B6:D6)</f>
-        <v>0.21380127627917472</v>
+        <v>4.1273879999999998</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.6478929879145765</v>
       </c>
@@ -1843,15 +1926,18 @@
         <v>0.4237677527</v>
       </c>
       <c r="E7">
-        <f>F7/MAX($F$2:$F$25)</f>
-        <v>0.58176146925627958</v>
+        <f t="shared" si="0"/>
+        <v>-3.9753721540523312E-2</v>
       </c>
       <c r="F7" s="6">
-        <f>A7-AVERAGE(B7:D7)</f>
-        <v>0.21380127627917472</v>
+        <v>4.1273879999999998</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.65035451986369497</v>
       </c>
@@ -1865,15 +1951,18 @@
         <v>0.4747284879</v>
       </c>
       <c r="E8">
-        <f>F8/MAX($F$2:$F$25)</f>
-        <v>0.54670995432631475</v>
+        <f t="shared" si="0"/>
+        <v>-3.0617938406113276E-2</v>
       </c>
       <c r="F8" s="6">
-        <f>A8-AVERAGE(B8:D8)</f>
-        <v>0.20091960737606673</v>
+        <v>3.1788750000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.68576417550320656</v>
       </c>
@@ -1887,15 +1976,18 @@
         <v>0.46971595659999998</v>
       </c>
       <c r="E9">
-        <f>F9/MAX($F$2:$F$25)</f>
-        <v>0.65422616799478994</v>
+        <f t="shared" si="0"/>
+        <v>7.8276060415353149E-2</v>
       </c>
       <c r="F9" s="6">
-        <f>A9-AVERAGE(B9:D9)</f>
-        <v>0.24043254337784598</v>
+        <v>-8.1269290000000005</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.77258450271974932</v>
       </c>
@@ -1909,15 +2001,18 @@
         <v>0.64766081870000003</v>
       </c>
       <c r="E10">
-        <f>F10/MAX($F$2:$F$25)</f>
-        <v>0.707204361530547</v>
+        <f t="shared" si="0"/>
+        <v>0.33228168763389254</v>
       </c>
       <c r="F10" s="6">
-        <f>A10-AVERAGE(B10:D10)</f>
-        <v>0.25990238796447718</v>
+        <v>-34.498793999999997</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.85466167164052753</v>
       </c>
@@ -1931,15 +2026,18 @@
         <v>0.85985797829999999</v>
       </c>
       <c r="E11">
-        <f>F11/MAX($F$2:$F$25)</f>
-        <v>0.7231394182294224</v>
+        <f t="shared" si="0"/>
+        <v>0.57800099861361454</v>
       </c>
       <c r="F11" s="6">
-        <f>A11-AVERAGE(B11:D11)</f>
-        <v>0.26575862912145165</v>
+        <v>-60.010340999999997</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>0.89337524075602681</v>
       </c>
@@ -1953,15 +2051,18 @@
         <v>0.85505430240000002</v>
       </c>
       <c r="E12">
-        <f>F12/MAX($F$2:$F$25)</f>
-        <v>0.78817979677375705</v>
+        <f t="shared" si="0"/>
+        <v>0.69124779891805299</v>
       </c>
       <c r="F12" s="6">
-        <f>A12-AVERAGE(B12:D12)</f>
-        <v>0.28966140831416165</v>
+        <v>-71.768069999999994</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>0.92327555188689225</v>
       </c>
@@ -1975,15 +2076,18 @@
         <v>0.80534670009999998</v>
       </c>
       <c r="E13">
-        <f>F13/MAX($F$2:$F$25)</f>
-        <v>0.57828839107904306</v>
+        <f t="shared" si="0"/>
+        <v>0.72291798982007438</v>
       </c>
       <c r="F13" s="6">
-        <f>A13-AVERAGE(B13:D13)</f>
-        <v>0.21252489654942086</v>
+        <v>-75.056194000000005</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>0.92849916396808263</v>
       </c>
@@ -1997,15 +2101,18 @@
         <v>0.67230576440000001</v>
       </c>
       <c r="E14">
-        <f>F14/MAX($F$2:$F$25)</f>
-        <v>0.41745377378621518</v>
+        <f t="shared" si="0"/>
+        <v>0.68621429701088221</v>
       </c>
       <c r="F14" s="6">
-        <f>A14-AVERAGE(B14:D14)</f>
-        <v>0.15341708645151442</v>
+        <v>-71.245472000000007</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>0.92096852710224997</v>
       </c>
@@ -2019,15 +2126,18 @@
         <v>0.60463659150000004</v>
       </c>
       <c r="E15">
-        <f>F15/MAX($F$2:$F$25)</f>
-        <v>0.35214004059727949</v>
+        <f t="shared" si="0"/>
+        <v>0.64668424257449686</v>
       </c>
       <c r="F15" s="6">
-        <f>A15-AVERAGE(B15:D15)</f>
-        <v>0.12941384757733521</v>
+        <v>-67.141306</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>0.92104048934323879</v>
       </c>
@@ -2041,15 +2151,18 @@
         <v>0.54761904760000002</v>
       </c>
       <c r="E16">
-        <f>F16/MAX($F$2:$F$25)</f>
-        <v>0.34318995679685643</v>
+        <f t="shared" si="0"/>
+        <v>0.63187592379946289</v>
       </c>
       <c r="F16" s="6">
-        <f>A16-AVERAGE(B16:D16)</f>
-        <v>0.12612463122242212</v>
+        <v>-65.603847999999999</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>0.92149977776366754</v>
       </c>
@@ -2063,15 +2176,18 @@
         <v>0.46825396829999999</v>
       </c>
       <c r="E17">
-        <f>F17/MAX($F$2:$F$25)</f>
-        <v>0.36244110834076965</v>
+        <f t="shared" si="0"/>
+        <v>0.61847845496905629</v>
       </c>
       <c r="F17" s="6">
-        <f>A17-AVERAGE(B17:D17)</f>
-        <v>0.13319955967238328</v>
+        <v>-64.212869999999995</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>0.89703896543695905</v>
       </c>
@@ -2085,15 +2201,18 @@
         <v>0.42042606519999998</v>
       </c>
       <c r="E18">
-        <f>F18/MAX($F$2:$F$25)</f>
-        <v>0.3713333277334967</v>
+        <f t="shared" si="0"/>
+        <v>0.54924839107435153</v>
       </c>
       <c r="F18" s="6">
-        <f>A18-AVERAGE(B18:D18)</f>
-        <v>0.13646751046594463</v>
+        <v>-57.025131999999999</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>0.88184858297881352</v>
       </c>
@@ -2107,15 +2226,18 @@
         <v>0.49624060149999999</v>
       </c>
       <c r="E19">
-        <f>F19/MAX($F$2:$F$25)</f>
-        <v>0.35944161999664942</v>
+        <f t="shared" si="0"/>
+        <v>0.51853486777712354</v>
       </c>
       <c r="F19" s="6">
-        <f>A19-AVERAGE(B19:D19)</f>
-        <v>0.13209722741071384</v>
+        <v>-53.836333000000003</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>0.8819607594132961</v>
       </c>
@@ -2129,15 +2251,18 @@
         <v>0.70655806180000003</v>
       </c>
       <c r="E20">
-        <f>F20/MAX($F$2:$F$25)</f>
-        <v>0.55998503078917328</v>
+        <f t="shared" si="0"/>
+        <v>0.59208486019698348</v>
       </c>
       <c r="F20" s="6">
-        <f>A20-AVERAGE(B20:D20)</f>
-        <v>0.20579828779828713</v>
+        <v>-61.472583</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>0.92154422503016065</v>
       </c>
@@ -2151,15 +2276,18 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>F21/MAX($F$2:$F$25)</f>
-        <v>0.73678872593358624</v>
+        <f t="shared" si="0"/>
+        <v>0.77565782997640054</v>
       </c>
       <c r="F21" s="6">
-        <f>A21-AVERAGE(B21:D21)</f>
-        <v>0.27077484205698354</v>
+        <v>-80.531852000000001</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>0.95986623489322065</v>
       </c>
@@ -2173,15 +2301,18 @@
         <v>0.94340016709999996</v>
       </c>
       <c r="E22">
-        <f>F22/MAX($F$2:$F$25)</f>
-        <v>0.89826718911456516</v>
+        <f t="shared" si="0"/>
+        <v>0.89143216872717423</v>
       </c>
       <c r="F22" s="6">
-        <f>A22-AVERAGE(B22:D22)</f>
-        <v>0.33011926987519002</v>
+        <v>-92.552000000000007</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>0.98913370161068426</v>
       </c>
@@ -2195,15 +2326,18 @@
         <v>0.93149540519999996</v>
       </c>
       <c r="E23">
-        <f>F23/MAX($F$2:$F$25)</f>
-        <v>0.96423028637566632</v>
+        <f t="shared" si="0"/>
+        <v>0.97309413416597379</v>
       </c>
       <c r="F23" s="6">
-        <f>A23-AVERAGE(B23:D23)</f>
-        <v>0.35436115443963179</v>
+        <v>-101.030467</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -2217,15 +2351,18 @@
         <v>0.90580618209999997</v>
       </c>
       <c r="E24">
-        <f>F24/MAX($F$2:$F$25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24" s="6">
-        <f>A24-AVERAGE(B24:D24)</f>
-        <v>0.36750676622241241</v>
+        <v>-103.82393999999999</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>0.94304611933032778</v>
       </c>
@@ -2239,21 +2376,24 @@
         <v>0.73830409360000004</v>
       </c>
       <c r="E25">
-        <f>F25/MAX($F$2:$F$25)</f>
-        <v>0.98420339435080517</v>
+        <f t="shared" si="0"/>
+        <v>0.81526257816838776</v>
       </c>
       <c r="F25" s="6">
-        <f>A25-AVERAGE(B25:D25)</f>
-        <v>0.36170140676298612</v>
+        <v>-84.643772999999996</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/group2 project/Database_only_interesting_columns.xlsx
+++ b/group2 project/Database_only_interesting_columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\citcea\Documents\GitHub\MUSAE\MUSAE_smart_grids\group2 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C08CF-A601-4D56-A1B6-1899A92FE827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8217C2D-C503-4645-80CD-E535A7A5BBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1455" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>demand_pu</t>
   </si>
@@ -51,16 +51,10 @@
     <t>Storage_pu</t>
   </si>
   <si>
-    <t>imports</t>
+    <t>storage level</t>
   </si>
   <si>
-    <t>real demand</t>
-  </si>
-  <si>
-    <t>real wind</t>
-  </si>
-  <si>
-    <t>filling storage</t>
+    <t>Storage</t>
   </si>
 </sst>
 </file>
@@ -197,11 +191,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Power generation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> pu</a:t>
+              <a:t>Generation curves</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -351,7 +341,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB32-434D-A671-028F8CD56732}"/>
+              <c16:uniqueId val="{00000000-EA29-4FE1-8C56-D210675194BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -465,7 +455,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BB32-434D-A671-028F8CD56732}"/>
+              <c16:uniqueId val="{00000001-EA29-4FE1-8C56-D210675194BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -579,7 +569,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BB32-434D-A671-028F8CD56732}"/>
+              <c16:uniqueId val="{00000002-EA29-4FE1-8C56-D210675194BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -616,76 +606,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.32552964181478761</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15965386210540652</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6018147644945861E-2</c:v>
+                  <c:v>-0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.940902069407114E-2</c:v>
+                  <c:v>-0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.9753721540523312E-2</c:v>
+                  <c:v>-0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.9753721540523312E-2</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.0617938406113276E-2</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8276060415353149E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33228168763389254</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57800099861361454</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69124779891805299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72291798982007438</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.68621429701088221</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64668424257449686</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.63187592379946289</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.61847845496905629</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.54924839107435153</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.51853486777712354</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59208486019698348</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.77565782997640054</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.89143216872717423</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97309413416597379</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.81526257816838776</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,7 +683,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BB32-434D-A671-028F8CD56732}"/>
+              <c16:uniqueId val="{00000003-EA29-4FE1-8C56-D210675194BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -706,11 +696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2034096015"/>
-        <c:axId val="2034100591"/>
+        <c:axId val="739534767"/>
+        <c:axId val="739537263"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2034096015"/>
+        <c:axId val="739534767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2034100591"/>
+        <c:crossAx val="739537263"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -760,7 +750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2034100591"/>
+        <c:axId val="739537263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2034096015"/>
+        <c:crossAx val="739534767"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1456,54 +1446,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524031E2-27C0-4907-B3E3-84C197B4D5BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>335747</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>84043</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285264</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133573</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1519,21 +1473,57 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1211580" y="4701540"/>
-          <a:ext cx="5387807" cy="2568163"/>
+          <a:off x="4743450" y="4810125"/>
+          <a:ext cx="5382092" cy="2524348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168236</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69ADC9B-79B3-491F-AB3D-ECA712F142BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1739,16 +1729,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I3" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -1773,14 +1763,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
@@ -1798,16 +1784,14 @@
         <v>0.45154553050000001</v>
       </c>
       <c r="E2">
-        <f>F2/MIN($F$2:$F$25)</f>
-        <v>0.32552964181478761</v>
+        <f>G2/MIN($G$2:$G$25)</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="F2" s="6">
-        <f>-33.79777</f>
-        <v>-33.79777</v>
-      </c>
-      <c r="G2" s="6">
-        <f>IF(F2&lt;0,1,0)</f>
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1824,16 +1808,15 @@
         <v>0.43546365910000001</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E25" si="0">F3/MIN($F$2:$F$25)</f>
-        <v>0.15965386210540652</v>
+        <f t="shared" ref="E3:E25" si="0">G3/MIN($G$2:$G$25)</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="F3" s="6">
-        <f>-16.575893</f>
-        <v>-16.575893000000001</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G25" si="1">IF(F3&lt;0,1,0)</f>
-        <v>1</v>
+        <f>F2+G3</f>
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1851,15 +1834,14 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>3.6018147644945861E-2</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="F4" s="6">
-        <f>-3.739546</f>
-        <v>-3.7395459999999998</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F3+G4</f>
+        <v>0.4</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1877,14 +1859,14 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-1.940902069407114E-2</v>
+        <v>-0.66666666666666674</v>
       </c>
       <c r="F5" s="6">
-        <v>2.0151210000000002</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F4+G5</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1902,14 +1884,14 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-3.9753721540523312E-2</v>
+        <v>-0.66666666666666674</v>
       </c>
       <c r="F6" s="6">
-        <v>4.1273879999999998</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F5+G6</f>
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1927,14 +1909,14 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-3.9753721540523312E-2</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="F7" s="6">
-        <v>4.1273879999999998</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F6+G7</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G7">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1952,14 +1934,14 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-3.0617938406113276E-2</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="F8" s="6">
-        <v>3.1788750000000001</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F7+G8</f>
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1977,14 +1959,14 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>7.8276060415353149E-2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>-8.1269290000000005</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F8+G9</f>
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2002,14 +1984,14 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.33228168763389254</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="F10" s="6">
-        <v>-34.498793999999997</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F9+G10</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2027,14 +2009,14 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.57800099861361454</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>-60.010340999999997</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F10+G11</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2052,14 +2034,14 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.69124779891805299</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6">
-        <v>-71.768069999999994</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F11+G12</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2077,14 +2059,14 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.72291798982007438</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>-75.056194000000005</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F12+G13</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2102,14 +2084,14 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.68621429701088221</v>
+        <v>0</v>
       </c>
       <c r="F14" s="6">
-        <v>-71.245472000000007</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F13+G14</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2127,14 +2109,14 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.64668424257449686</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>-67.141306</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F14+G15</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2152,14 +2134,14 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.63187592379946289</v>
+        <v>0</v>
       </c>
       <c r="F16" s="6">
-        <v>-65.603847999999999</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F15+G16</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2177,14 +2159,14 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.61847845496905629</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>-64.212869999999995</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F16+G17</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2202,14 +2184,14 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.54924839107435153</v>
+        <v>0</v>
       </c>
       <c r="F18" s="6">
-        <v>-57.025131999999999</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F17+G18</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2227,14 +2209,14 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.51853486777712354</v>
+        <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>-53.836333000000003</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F18+G19</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2252,14 +2234,14 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.59208486019698348</v>
+        <v>0</v>
       </c>
       <c r="F20" s="6">
-        <v>-61.472583</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F19+G20</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2277,14 +2259,14 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.77565782997640054</v>
+        <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>-80.531852000000001</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F20+G21</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2302,14 +2284,14 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.89143216872717423</v>
+        <v>0</v>
       </c>
       <c r="F22" s="6">
-        <v>-92.552000000000007</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F21+G22</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2327,14 +2309,14 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.97309413416597379</v>
+        <v>0</v>
       </c>
       <c r="F23" s="6">
-        <v>-101.030467</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F22+G23</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2352,14 +2334,14 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="6">
-        <v>-103.82393999999999</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F23+G24</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2377,14 +2359,14 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0.81526257816838776</v>
+        <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>-84.643772999999996</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F24+G25</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/group2 project/Database_only_interesting_columns.xlsx
+++ b/group2 project/Database_only_interesting_columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\citcea\Documents\GitHub\MUSAE\MUSAE_smart_grids\group2 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8217C2D-C503-4645-80CD-E535A7A5BBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541C854E-5182-4AD7-B0F6-8B719F51623E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1455" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -888,6 +888,738 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Modeled generation and demand</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>demand_pu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.77649586217114308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72329460071538931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6805850106885093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65783647639003529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6478929879145765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6478929879145765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65035451986369497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68576417550320656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77258450271974932</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85466167164052753</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89337524075602681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92327555188689225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92849916396808263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92096852710224997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92104048934323879</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92149977776366754</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89703896543695905</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88184858297881352</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8819607594132961</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92154422503016065</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95986623489322065</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98913370161068426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94304611933032778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E5F-4104-9075-A3FF1A9F72E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wind_pu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.93500662281391012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94689027082444677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93363715959859006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89902640893817953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87348554580218363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87348554580218363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86872609987353044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86140732924739383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88540661084046124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90216195586287407</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89480576820899649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88660395572817274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87480262517866625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85727648938478918</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87440600468461183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.896646685973853</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89449894858152046</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90445187796062221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90249870911254293</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91375375105703094</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.939144946082063</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96653421038846354</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9858039796750705</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E5F-4104-9075-A3FF1A9F72E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solar_pu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5.3222881546897303E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2793664760228771E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9789147253549082E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0325668236884738E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0218364040217614E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0218364040217614E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8501496893543503E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8716105286877769E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9789147253549082E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6891933943536534E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1281426716598884E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44030131018424129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7781378429710385</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91275095768995529</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96272252207783837</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96678935113152276</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.84856158724367703</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.41943064393248419</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8554397862500402E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6957818720290154E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.2880259246939152E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8695395576921017E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7300441020248305E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E5F-4104-9075-A3FF1A9F72E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gas_pu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.45154553050000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43546365910000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43337510439999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42418546369999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4237677527</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4237677527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4747284879</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46971595659999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64766081870000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85985797829999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85505430240000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80534670009999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67230576440000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60463659150000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54761904760000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46825396829999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42042606519999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49624060149999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70655806180000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94340016709999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93149540519999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.90580618209999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73830409360000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8E5F-4104-9075-A3FF1A9F72E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="117654704"/>
+        <c:axId val="117647216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="117654704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117647216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117647216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117654704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -928,7 +1660,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1492,16 +2780,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>654843</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>18455</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>446484</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>168236</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141685</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>39649</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1521,6 +2809,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>471854</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>111369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>811823</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A9F562-70C7-4807-B473-347AA1DA86B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1729,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I3" sqref="I2:I3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1812,7 +3136,7 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="F3" s="6">
-        <f>F2+G3</f>
+        <f t="shared" ref="F3:F25" si="1">F2+G3</f>
         <v>0.3</v>
       </c>
       <c r="G3">
@@ -1837,7 +3161,7 @@
         <v>-0.33333333333333337</v>
       </c>
       <c r="F4" s="6">
-        <f>F3+G4</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="G4">
@@ -1862,7 +3186,7 @@
         <v>-0.66666666666666674</v>
       </c>
       <c r="F5" s="6">
-        <f>F4+G5</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G5">
@@ -1887,7 +3211,7 @@
         <v>-0.66666666666666674</v>
       </c>
       <c r="F6" s="6">
-        <f>F5+G6</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="G6">
@@ -1912,7 +3236,7 @@
         <v>0.33333333333333337</v>
       </c>
       <c r="F7" s="6">
-        <f>F6+G7</f>
+        <f t="shared" si="1"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="G7">
@@ -1937,7 +3261,7 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="F8" s="6">
-        <f>F7+G8</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G8">
@@ -1962,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <f>F8+G9</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="G9">
@@ -1987,7 +3311,7 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="F10" s="6">
-        <f>F9+G10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10">
@@ -2012,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <f>F10+G11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11">
@@ -2037,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="6">
-        <f>F11+G12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12">
@@ -2062,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <f>F12+G13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13">
@@ -2087,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6">
-        <f>F13+G14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14">
@@ -2112,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <f>F14+G15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
@@ -2137,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="6">
-        <f>F15+G16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16">
@@ -2162,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <f>F16+G17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17">
@@ -2187,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="6">
-        <f>F17+G18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18">
@@ -2212,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <f>F18+G19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19">
@@ -2237,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="6">
-        <f>F19+G20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20">
@@ -2262,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <f>F20+G21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21">
@@ -2287,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="6">
-        <f>F21+G22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22">
@@ -2312,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <f>F22+G23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23">
@@ -2337,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="6">
-        <f>F23+G24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24">
@@ -2362,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <f>F24+G25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25">
